--- a/ZS7/Artificial Intelligence for Computer Games/metacentrum data - grid.xlsx
+++ b/ZS7/Artificial Intelligence for Computer Games/metacentrum data - grid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\mff\ZS7\Artificial Intelligence for Computer Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B3A4C2-0F61-4A5A-83F0-F1068176F06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE44ED6-70F1-43AE-83C9-DD37C800A809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cross" sheetId="4" r:id="rId1"/>
@@ -47014,8 +47014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50792,7 +50792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC47" sqref="AC47"/>
     </sheetView>
   </sheetViews>
